--- a/histórico_modificacoes.xlsx
+++ b/histórico_modificacoes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8805"/>
+    <workbookView windowWidth="20385" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>id</t>
   </si>
@@ -28,7 +28,7 @@
     <t>mod1</t>
   </si>
   <si>
-    <t>Anúncios estão ocupando grande parte da tela</t>
+    <t xml:space="preserve"> Anúncios estão ocupando grande parte da tela (Corretiva)</t>
   </si>
   <si>
     <t>março</t>
@@ -37,9 +37,6 @@
     <t>sugerida primeira modificação</t>
   </si>
   <si>
-    <t>Adicionar campo para buscar por cidade na tela inicial</t>
-  </si>
-  <si>
     <t>abril</t>
   </si>
   <si>
@@ -58,13 +55,16 @@
     <t>mod2</t>
   </si>
   <si>
+    <t xml:space="preserve"> Adicionar campo para buscar por cidade na tela inicial (Perfectiva)</t>
+  </si>
+  <si>
     <t>teste da segunda modificação</t>
   </si>
   <si>
     <t>mod3</t>
   </si>
   <si>
-    <t>Adicionar filtro para estabelecimentos fechados e abertos</t>
+    <t>Remover label estabelecimentos fechados e abertos (Corretiva)</t>
   </si>
   <si>
     <t>sugerida terceira modificação</t>
@@ -82,7 +82,7 @@
     <t>mod4</t>
   </si>
   <si>
-    <t>Remover carrinho de compras</t>
+    <t>Remover carrinho de compras (Corretiva)</t>
   </si>
   <si>
     <t>sugerida quarta modificação</t>
@@ -100,7 +100,7 @@
     <t>mod5</t>
   </si>
   <si>
-    <t>Melhorar o layout do footer</t>
+    <t>Melhorar o layout do footer (Perfectiva)</t>
   </si>
   <si>
     <t>sugerida quinta modificação</t>
@@ -118,7 +118,7 @@
     <t>mod6</t>
   </si>
   <si>
-    <t>Mostrar tempo estimado de entrega</t>
+    <t>Mostrar tempo estimado de entrega (Perfectiva)</t>
   </si>
   <si>
     <t>sugerida sexta modificação</t>
@@ -136,7 +136,7 @@
     <t>mod7</t>
   </si>
   <si>
-    <t>melhorar o layout dos cardápios, como produtos são mostrados no cardápio</t>
+    <t>melhorar o layout dos cardápios, como produtos são mostrados no cardápio (Perfectiva)</t>
   </si>
   <si>
     <t>sugerida sétima modificação</t>
@@ -154,7 +154,7 @@
     <t>mod8</t>
   </si>
   <si>
-    <t>Links quebrados.</t>
+    <t xml:space="preserve"> Links quebrados (Corretiva)</t>
   </si>
   <si>
     <t>sugerida oitáva modificação</t>
@@ -172,7 +172,7 @@
     <t>mod9</t>
   </si>
   <si>
-    <t>Restaurantes aparecem como fechado, quando estão abertos.</t>
+    <t>Migrar o front end para Vue js. (Perfectiva)</t>
   </si>
   <si>
     <t>sugerida nona modificação</t>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>teste da nona modificação</t>
+  </si>
+  <si>
+    <t>mod10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Migrar o backend para Rest api nodejs (Perfectiva)</t>
   </si>
 </sst>
 </file>
@@ -192,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +220,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +235,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,8 +273,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,10 +320,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,22 +344,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,66 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -375,187 +388,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +779,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -776,17 +804,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,6 +826,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -817,24 +843,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,152 +856,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,9 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1031,57 +1041,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1091,33 +1068,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
+    <cellStyle name="60% - Accent3" xfId="9" builtinId="40"/>
     <cellStyle name="Accent4" xfId="10" builtinId="41"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
     <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
@@ -1126,37 +1121,37 @@
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Porcentagem" xfId="18" builtinId="5"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="27" builtinId="4"/>
+    <cellStyle name="Check Cell" xfId="28" builtinId="23"/>
+    <cellStyle name="Good" xfId="29" builtinId="26"/>
+    <cellStyle name="Calculation" xfId="30" builtinId="22"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Output" xfId="32" builtinId="21"/>
+    <cellStyle name="60% - Accent6" xfId="33" builtinId="52"/>
+    <cellStyle name="Hyperlink seguido" xfId="34" builtinId="9"/>
+    <cellStyle name="Moeda [0]" xfId="35" builtinId="7"/>
+    <cellStyle name="Note" xfId="36" builtinId="10"/>
+    <cellStyle name="Input" xfId="37" builtinId="20"/>
+    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="CExplanatory Text" xfId="40" builtinId="53"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Comma [0]" xfId="42" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="43" builtinId="50"/>
+    <cellStyle name="Title" xfId="44" builtinId="15"/>
     <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
     <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Heading 4" xfId="47" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1167,10 +1162,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="2C2C2C"/>
+        <a:sysClr val="windowText" lastClr="4D4D4D"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F7F7F7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1421,17 +1416,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="6.38666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.92" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.64" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.07333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.3066666666667" style="1" customWidth="1"/>
   </cols>
@@ -1445,7 +1440,7 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1456,451 +1451,499 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" ht="25.5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" spans="2:6">
-      <c r="B6" s="10" t="s">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25" spans="2:5">
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="37"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" spans="2:5">
-      <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="E11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" spans="2:5">
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" spans="2:5">
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="38.25" spans="2:5">
-      <c r="B12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="E19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="E20" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" spans="2:5">
+      <c r="B24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" spans="2:5">
-      <c r="B24" s="18" t="s">
+      <c r="E24" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" ht="38.25" spans="2:5">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="38" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="38" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" ht="25.5" spans="2:5">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" ht="13.5" spans="2:5">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="32" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" ht="25.5" spans="2:5">
+      <c r="B40" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" spans="2:5">
+      <c r="B43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="28" t="s">
         <v>56</v>
       </c>
     </row>
